--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Previous Close</t>
   </si>
@@ -64,16 +64,7 @@
     <t>EV/Capital Ratio</t>
   </si>
   <si>
-    <t>1YrTargetPrice</t>
-  </si>
-  <si>
-    <t>psRatio</t>
-  </si>
-  <si>
     <t>pbRatio</t>
-  </si>
-  <si>
-    <t>peRatio</t>
   </si>
   <si>
     <t>epsRatio</t>
@@ -523,49 +514,49 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>3098.39</v>
+        <v>3185.07</v>
       </c>
       <c r="B2">
-        <v>3100.5</v>
+        <v>3211.26</v>
       </c>
       <c r="C2">
-        <v>1866795</v>
+        <v>2392867</v>
       </c>
       <c r="D2">
-        <v>3537266</v>
+        <v>3549657</v>
       </c>
       <c r="E2">
-        <v>1561800343552</v>
+        <v>1603265101824</v>
       </c>
       <c r="F2">
         <v>1.298759</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>3800</v>
+      </c>
+      <c r="J2">
+        <v>4.607812</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2">
+        <v>11.743</v>
+      </c>
+      <c r="M2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
         <v>19</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>21</v>
       </c>
-      <c r="N2" t="s">
+      <c r="Q2" t="s">
         <v>22</v>
-      </c>
-      <c r="O2" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
